--- a/medicine/Pharmacie/EudraVigilance/EudraVigilance.xlsx
+++ b/medicine/Pharmacie/EudraVigilance/EudraVigilance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">EudraVigilance (European Union Drug Regulating Authorities Pharmacovigilance) est le réseau européen de traitement des données et le système de gestion pour la notification et l'évaluation des effets indésirables suspectés de médicaments qui ont été autorisés ou en cours d'étude dans des essais cliniques dans l'Espace économique européen (EEE). L'Agence européenne des médicaments (EMA) exploite le système au nom du réseau de réglementation des médicaments de l'Union européenne (UE).
 Le système européen EudraVigilance traite :
